--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wz2/Desktop/Wyzrs/Samoo_Design Automation/Dev3/IN_Samoo_Dev.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV-3\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF732322-815C-3E4A-801D-ADDB9C59FC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586CB61-5F1C-425E-A73C-64F729583845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="620" windowWidth="34800" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data_Module" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="177">
   <si>
     <t>A</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Purple</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t>A</t>
   </si>
   <si>
     <t>ID</t>
@@ -102,7 +102,7 @@
     <t>Module creation input data</t>
   </si>
   <si>
-    <t xml:space="preserve">Vertical: vertical relationship</t>
+    <t>Vertical: vertical relationship</t>
   </si>
   <si>
     <t>Horizontal: horizontal relationship</t>
@@ -203,7 +203,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +307,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -328,7 +328,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -339,7 +339,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">restroom</t>
+      <t>restroom</t>
     </r>
   </si>
   <si>
@@ -758,6 +758,18 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Yellow</t>
   </si>
 </sst>
 </file>
@@ -1358,73 +1370,73 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2591,71 +2603,71 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="56" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="43" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="16" width="16.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="16.33203125" style="1"/>
+    <col min="8" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" ht="27.6" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="42"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
@@ -2680,7 +2692,7 @@
       <c r="L3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="36" t="s">
         <v>172</v>
       </c>
       <c r="N3" s="10" t="s">
@@ -2694,10 +2706,10 @@
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="44" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -2720,20 +2732,20 @@
       <c r="L4" s="16">
         <v>1</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
@@ -2754,20 +2766,20 @@
       <c r="L5" s="21">
         <v>1</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="44" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -2777,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="H6" s="25">
         <v>5615.03</v>
@@ -2790,20 +2802,20 @@
       <c r="L6" s="21">
         <v>1</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.75" customHeight="1">
+    <row r="7" spans="1:16" ht="20.85" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="18" t="s">
         <v>5</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="H7" s="25">
         <v>1885.68</v>
@@ -2824,20 +2836,20 @@
       <c r="L7" s="21">
         <v>1</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H8" s="25">
         <v>2495.8000000000002</v>
@@ -2858,20 +2870,20 @@
       <c r="L8" s="21">
         <v>1</v>
       </c>
-      <c r="M8" s="51"/>
+      <c r="M8" s="38"/>
       <c r="N8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="18" t="s">
         <v>7</v>
       </c>
@@ -2892,20 +2904,20 @@
       <c r="L9" s="21">
         <v>2</v>
       </c>
-      <c r="M9" s="51"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20" customHeight="1">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2915,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H10" s="25">
         <v>7368</v>
@@ -2928,20 +2940,20 @@
       <c r="L10" s="21">
         <v>2</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20" customHeight="1">
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="18" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H11" s="25">
         <v>1499.07</v>
@@ -2962,20 +2974,20 @@
       <c r="L11" s="21">
         <v>2</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20" customHeight="1">
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -2998,20 +3010,20 @@
       <c r="L12" s="21">
         <v>2</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="18" t="s">
         <v>10</v>
       </c>
@@ -3032,20 +3044,20 @@
       <c r="L13" s="21">
         <v>3</v>
       </c>
-      <c r="M13" s="51"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="18" t="s">
         <v>52</v>
       </c>
@@ -3066,20 +3078,20 @@
       <c r="L14" s="21">
         <v>3</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="38"/>
       <c r="N14" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="18" t="s">
         <v>8</v>
       </c>
@@ -3100,20 +3112,20 @@
       <c r="L15" s="21">
         <v>3</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="18" t="s">
         <v>6</v>
       </c>
@@ -3134,20 +3146,20 @@
       <c r="L16" s="21">
         <v>3</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="18" t="s">
         <v>53</v>
       </c>
@@ -3168,20 +3180,20 @@
       <c r="L17" s="21">
         <v>3</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="18" t="s">
         <v>54</v>
       </c>
@@ -3202,20 +3214,20 @@
       <c r="L18" s="21">
         <v>3</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
@@ -3236,20 +3248,20 @@
       <c r="L19" s="21">
         <v>3</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="18" t="s">
         <v>55</v>
       </c>
@@ -3270,20 +3282,20 @@
       <c r="L20" s="21">
         <v>3</v>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="38"/>
       <c r="N20" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="18" t="s">
         <v>56</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H21" s="31">
         <v>881.61</v>
@@ -3304,20 +3316,20 @@
       <c r="L21" s="21">
         <v>3</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="38"/>
       <c r="N21" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="18" t="s">
         <v>57</v>
       </c>
@@ -3338,22 +3350,22 @@
       <c r="L22" s="21">
         <v>3</v>
       </c>
-      <c r="M22" s="51"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="44" t="s">
         <v>147</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -3376,20 +3388,20 @@
       <c r="L23" s="21">
         <v>3</v>
       </c>
-      <c r="M23" s="51"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="18" t="s">
         <v>59</v>
       </c>
@@ -3410,20 +3422,20 @@
       <c r="L24" s="21">
         <v>3</v>
       </c>
-      <c r="M24" s="51"/>
+      <c r="M24" s="38"/>
       <c r="N24" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="18" t="s">
         <v>60</v>
       </c>
@@ -3444,20 +3456,20 @@
       <c r="L25" s="21">
         <v>3</v>
       </c>
-      <c r="M25" s="51"/>
+      <c r="M25" s="38"/>
       <c r="N25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="18" t="s">
         <v>61</v>
       </c>
@@ -3478,20 +3490,20 @@
       <c r="L26" s="21">
         <v>3</v>
       </c>
-      <c r="M26" s="51"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="18" t="s">
         <v>62</v>
       </c>
@@ -3512,20 +3524,20 @@
       <c r="L27" s="21">
         <v>3</v>
       </c>
-      <c r="M27" s="51"/>
+      <c r="M27" s="38"/>
       <c r="N27" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="18" t="s">
         <v>63</v>
       </c>
@@ -3546,20 +3558,20 @@
       <c r="L28" s="21">
         <v>3</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="38"/>
       <c r="N28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="18" t="s">
         <v>64</v>
       </c>
@@ -3580,20 +3592,20 @@
       <c r="L29" s="21">
         <v>3</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="38"/>
       <c r="N29" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="18" t="s">
         <v>65</v>
       </c>
@@ -3614,20 +3626,20 @@
       <c r="L30" s="21">
         <v>3</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="38"/>
       <c r="N30" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="18" t="s">
         <v>66</v>
       </c>
@@ -3648,20 +3660,20 @@
       <c r="L31" s="21">
         <v>3</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="38"/>
       <c r="N31" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="37" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="18" t="s">
@@ -3684,20 +3696,20 @@
       <c r="L32" s="21">
         <v>3</v>
       </c>
-      <c r="M32" s="51"/>
+      <c r="M32" s="38"/>
       <c r="N32" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="18" t="s">
         <v>68</v>
       </c>
@@ -3718,20 +3730,20 @@
       <c r="L33" s="21">
         <v>3</v>
       </c>
-      <c r="M33" s="51"/>
+      <c r="M33" s="38"/>
       <c r="N33" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="18" t="s">
         <v>69</v>
       </c>
@@ -3752,20 +3764,20 @@
       <c r="L34" s="21">
         <v>3</v>
       </c>
-      <c r="M34" s="51"/>
+      <c r="M34" s="38"/>
       <c r="N34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="18" t="s">
         <v>70</v>
       </c>
@@ -3786,20 +3798,20 @@
       <c r="L35" s="21">
         <v>3</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="38"/>
       <c r="N35" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="18" t="s">
         <v>71</v>
       </c>
@@ -3820,20 +3832,20 @@
       <c r="L36" s="21">
         <v>3</v>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="38"/>
       <c r="N36" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E37" s="18" t="s">
@@ -3856,20 +3868,20 @@
       <c r="L37" s="21">
         <v>3</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="38"/>
       <c r="N37" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="18" t="s">
         <v>73</v>
       </c>
@@ -3890,20 +3902,20 @@
       <c r="L38" s="21">
         <v>3</v>
       </c>
-      <c r="M38" s="51"/>
+      <c r="M38" s="38"/>
       <c r="N38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="18" t="s">
         <v>92</v>
       </c>
@@ -3924,20 +3936,20 @@
       <c r="L39" s="21">
         <v>3</v>
       </c>
-      <c r="M39" s="51"/>
+      <c r="M39" s="38"/>
       <c r="N39" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="18" t="s">
         <v>93</v>
       </c>
@@ -3958,20 +3970,20 @@
       <c r="L40" s="21">
         <v>3</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="38"/>
       <c r="N40" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1">
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="18" t="s">
         <v>94</v>
       </c>
@@ -3992,20 +4004,20 @@
       <c r="L41" s="21">
         <v>3</v>
       </c>
-      <c r="M41" s="51"/>
+      <c r="M41" s="38"/>
       <c r="N41" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="18" t="s">
         <v>95</v>
       </c>
@@ -4026,20 +4038,20 @@
       <c r="L42" s="21">
         <v>3</v>
       </c>
-      <c r="M42" s="51"/>
+      <c r="M42" s="38"/>
       <c r="N42" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1">
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="18" t="s">
         <v>96</v>
       </c>
@@ -4060,20 +4072,20 @@
       <c r="L43" s="21">
         <v>3</v>
       </c>
-      <c r="M43" s="51"/>
+      <c r="M43" s="38"/>
       <c r="N43" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1">
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="18" t="s">
         <v>97</v>
       </c>
@@ -4094,20 +4106,20 @@
       <c r="L44" s="21">
         <v>3</v>
       </c>
-      <c r="M44" s="51"/>
+      <c r="M44" s="38"/>
       <c r="N44" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1">
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="18" t="s">
         <v>98</v>
       </c>
@@ -4128,20 +4140,20 @@
       <c r="L45" s="21">
         <v>3</v>
       </c>
-      <c r="M45" s="51"/>
+      <c r="M45" s="38"/>
       <c r="N45" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1">
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="18" t="s">
         <v>99</v>
       </c>
@@ -4162,20 +4174,20 @@
       <c r="L46" s="21">
         <v>3</v>
       </c>
-      <c r="M46" s="51"/>
+      <c r="M46" s="38"/>
       <c r="N46" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1">
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="18" t="s">
         <v>100</v>
       </c>
@@ -4196,20 +4208,20 @@
       <c r="L47" s="21">
         <v>3</v>
       </c>
-      <c r="M47" s="51"/>
+      <c r="M47" s="38"/>
       <c r="N47" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1">
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="18" t="s">
         <v>101</v>
       </c>
@@ -4230,20 +4242,20 @@
       <c r="L48" s="21">
         <v>3</v>
       </c>
-      <c r="M48" s="51"/>
+      <c r="M48" s="38"/>
       <c r="N48" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1">
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="18" t="s">
         <v>102</v>
       </c>
@@ -4264,20 +4276,20 @@
       <c r="L49" s="21">
         <v>3</v>
       </c>
-      <c r="M49" s="51"/>
+      <c r="M49" s="38"/>
       <c r="N49" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="18" t="s">
         <v>103</v>
       </c>
@@ -4298,20 +4310,20 @@
       <c r="L50" s="21">
         <v>3</v>
       </c>
-      <c r="M50" s="51"/>
+      <c r="M50" s="38"/>
       <c r="N50" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="20" customHeight="1">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="18" t="s">
         <v>104</v>
       </c>
@@ -4332,20 +4344,20 @@
       <c r="L51" s="21">
         <v>3</v>
       </c>
-      <c r="M51" s="51"/>
+      <c r="M51" s="38"/>
       <c r="N51" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="20" customHeight="1">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="18" t="s">
         <v>105</v>
       </c>
@@ -4366,20 +4378,20 @@
       <c r="L52" s="21">
         <v>3</v>
       </c>
-      <c r="M52" s="51"/>
+      <c r="M52" s="38"/>
       <c r="N52" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20" customHeight="1">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="18" t="s">
         <v>106</v>
       </c>
@@ -4400,20 +4412,20 @@
       <c r="L53" s="21">
         <v>3</v>
       </c>
-      <c r="M53" s="51"/>
+      <c r="M53" s="38"/>
       <c r="N53" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20" customHeight="1">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="18" t="s">
         <v>140</v>
       </c>
@@ -4434,20 +4446,20 @@
       <c r="L54" s="21">
         <v>3</v>
       </c>
-      <c r="M54" s="51"/>
+      <c r="M54" s="38"/>
       <c r="N54" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20" customHeight="1">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="18" t="s">
         <v>141</v>
       </c>
@@ -4468,20 +4480,20 @@
       <c r="L55" s="21">
         <v>3</v>
       </c>
-      <c r="M55" s="51"/>
+      <c r="M55" s="38"/>
       <c r="N55" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20" customHeight="1">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="18" t="s">
         <v>142</v>
       </c>
@@ -4502,20 +4514,20 @@
       <c r="L56" s="21">
         <v>3</v>
       </c>
-      <c r="M56" s="51"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="20" customHeight="1">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="18" t="s">
         <v>143</v>
       </c>
@@ -4536,20 +4548,20 @@
       <c r="L57" s="21">
         <v>3</v>
       </c>
-      <c r="M57" s="51"/>
+      <c r="M57" s="38"/>
       <c r="N57" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20" customHeight="1">
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="18" t="s">
         <v>144</v>
       </c>
@@ -4570,20 +4582,20 @@
       <c r="L58" s="21">
         <v>3</v>
       </c>
-      <c r="M58" s="51"/>
+      <c r="M58" s="38"/>
       <c r="N58" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="20" customHeight="1">
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="18" t="s">
         <v>145</v>
       </c>
@@ -4604,20 +4616,20 @@
       <c r="L59" s="21">
         <v>3</v>
       </c>
-      <c r="M59" s="51"/>
+      <c r="M59" s="38"/>
       <c r="N59" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="20" customHeight="1">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="18" t="s">
         <v>146</v>
       </c>
@@ -4638,26 +4650,26 @@
       <c r="L60" s="21">
         <v>3</v>
       </c>
-      <c r="M60" s="51"/>
+      <c r="M60" s="38"/>
       <c r="N60" s="17" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:C22"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D22"/>
     <mergeCell ref="C23:C60"/>
     <mergeCell ref="D23:D31"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="D37:D60"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:C22"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -4676,93 +4688,93 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="35" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="35" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4780,16 +4792,16 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -4810,7 +4822,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -4833,7 +4845,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4854,7 +4866,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4897,8 +4909,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="43">
+    <row r="6" spans="1:7">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -4920,8 +4932,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="56"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV-3\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV_3_Nevron_1205\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586CB61-5F1C-425E-A73C-64F729583845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322C082-11B0-4CB9-855A-75C14321C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
   <si>
     <t>A</t>
   </si>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <t>Yellow</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Brown</t>
   </si>
 </sst>
 </file>
@@ -1409,6 +1415,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1416,24 +1440,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2600,7 +2606,7 @@
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
@@ -2620,42 +2626,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.6" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
@@ -2664,10 +2670,10 @@
       <c r="B3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
@@ -2706,7 +2712,7 @@
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="54" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -2744,7 +2750,7 @@
       <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="46"/>
       <c r="E5" s="18" t="s">
         <v>4</v>
@@ -2753,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H5" s="25">
         <v>3983.44</v>
@@ -2778,7 +2784,7 @@
       <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="44" t="s">
         <v>90</v>
       </c>
@@ -2814,7 +2820,7 @@
       <c r="B7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="45"/>
       <c r="E7" s="18" t="s">
         <v>5</v>
@@ -2848,7 +2854,7 @@
       <c r="B8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="45"/>
       <c r="E8" s="18" t="s">
         <v>6</v>
@@ -2882,7 +2888,7 @@
       <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="46"/>
       <c r="E9" s="18" t="s">
         <v>7</v>
@@ -2916,7 +2922,7 @@
       <c r="B10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="44" t="s">
         <v>89</v>
       </c>
@@ -2952,7 +2958,7 @@
       <c r="B11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="46"/>
       <c r="E11" s="18" t="s">
         <v>6</v>
@@ -2986,7 +2992,7 @@
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="44" t="s">
         <v>88</v>
       </c>
@@ -3022,7 +3028,7 @@
       <c r="B13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="45"/>
       <c r="E13" s="18" t="s">
         <v>10</v>
@@ -3031,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="H13" s="26">
         <v>479.52</v>
@@ -3056,7 +3062,7 @@
       <c r="B14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="45"/>
       <c r="E14" s="18" t="s">
         <v>52</v>
@@ -3090,7 +3096,7 @@
       <c r="B15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="45"/>
       <c r="E15" s="18" t="s">
         <v>8</v>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H15" s="26">
         <v>139.12</v>
@@ -3124,7 +3130,7 @@
       <c r="B16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="45"/>
       <c r="E16" s="18" t="s">
         <v>6</v>
@@ -3133,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="H16" s="26">
         <v>391.68</v>
@@ -3158,7 +3164,7 @@
       <c r="B17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="45"/>
       <c r="E17" s="18" t="s">
         <v>53</v>
@@ -3167,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H17" s="26">
         <v>97.92</v>
@@ -3192,7 +3198,7 @@
       <c r="B18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="45"/>
       <c r="E18" s="18" t="s">
         <v>54</v>
@@ -3226,7 +3232,7 @@
       <c r="B19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="45"/>
       <c r="E19" s="18" t="s">
         <v>9</v>
@@ -3235,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="H19" s="26">
         <v>781.21</v>
@@ -3260,7 +3266,7 @@
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="45"/>
       <c r="E20" s="18" t="s">
         <v>55</v>
@@ -3294,7 +3300,7 @@
       <c r="B21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="45"/>
       <c r="E21" s="18" t="s">
         <v>56</v>
@@ -3328,7 +3334,7 @@
       <c r="B22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="46"/>
       <c r="E22" s="18" t="s">
         <v>57</v>
@@ -3443,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="H25" s="27">
         <v>66</v>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H28" s="27">
         <v>456.72</v>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H31" s="27">
         <v>859.76</v>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H33" s="27">
         <v>132</v>
@@ -3785,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="H35" s="28">
         <v>1083.68</v>
@@ -3819,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H36" s="27">
         <v>334.88</v>
@@ -3855,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H37" s="27">
         <v>931.35</v>
@@ -3923,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="H39" s="27">
         <v>282.39999999999998</v>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="H41" s="27">
         <v>135.88</v>
@@ -4025,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H42" s="27">
         <v>64.8</v>
@@ -4059,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H43" s="27">
         <v>609.76</v>
@@ -4127,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="H45" s="27">
         <v>59.84</v>
@@ -4195,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="H47" s="27">
         <v>318.56</v>
@@ -4331,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="H51" s="27">
         <v>148.52000000000001</v>
@@ -4365,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="H52" s="27">
         <v>511.44</v>
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="H54" s="27">
         <v>60.96</v>
@@ -4535,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="H57" s="27">
         <v>202.4</v>
@@ -4603,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="H59" s="28">
         <v>1143.71</v>
@@ -4657,8 +4663,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A2:M2"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:C22"/>
@@ -4670,6 +4674,8 @@
     <mergeCell ref="D23:D31"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="D37:D60"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV_3_Nevron_1205\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322C082-11B0-4CB9-855A-75C14321C6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFFA9F-2DAF-4927-9698-A11D678CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="180">
   <si>
     <t>A</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>Brown</t>
+  </si>
+  <si>
+    <t>Group color</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1276,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1406,15 +1409,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,20 +1451,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2603,13 +2618,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2617,2065 +2632,2334 @@
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="43" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="16" width="16.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="16.28515625" style="1"/>
+    <col min="4" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="17" width="16.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:17" ht="27.6" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-    </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:17" ht="24" customHeight="1">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1" thickTop="1">
+    <row r="4" spans="1:17" ht="20.25" customHeight="1" thickTop="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
+      <c r="I4" s="24">
         <v>805.12</v>
       </c>
-      <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="16">
-        <v>4800</v>
-      </c>
+      <c r="K4" s="16"/>
       <c r="L4" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M4" s="16">
         <v>1</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="25">
+      <c r="I5" s="25">
         <v>3983.44</v>
       </c>
-      <c r="I5" s="21"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L5" s="21">
+      <c r="K5" s="21"/>
+      <c r="L5" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M5" s="21">
         <v>1</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="25">
+      <c r="I6" s="25">
         <v>5615.03</v>
       </c>
-      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L6" s="21">
+      <c r="K6" s="21"/>
+      <c r="L6" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M6" s="21">
         <v>1</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.85" customHeight="1">
+    <row r="7" spans="1:17" ht="20.85" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="25">
+      <c r="I7" s="25">
         <v>1885.68</v>
       </c>
-      <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L7" s="21">
+      <c r="K7" s="21"/>
+      <c r="L7" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M7" s="21">
         <v>1</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="25">
+      <c r="I8" s="25">
         <v>2495.8000000000002</v>
       </c>
-      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L8" s="21">
+      <c r="K8" s="21"/>
+      <c r="L8" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M8" s="21">
         <v>1</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="26">
+      <c r="I9" s="26">
         <v>475.39</v>
       </c>
-      <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L9" s="21">
+      <c r="K9" s="21"/>
+      <c r="L9" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M9" s="21">
         <v>2</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="38"/>
+      <c r="O9" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="25">
+      <c r="I10" s="25">
         <v>7368</v>
       </c>
-      <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L10" s="21">
+      <c r="K10" s="21"/>
+      <c r="L10" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M10" s="21">
         <v>2</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="38"/>
+      <c r="O10" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>1499.07</v>
       </c>
-      <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L11" s="21">
+      <c r="K11" s="21"/>
+      <c r="L11" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M11" s="21">
         <v>2</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="38"/>
+      <c r="O11" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="26">
+      <c r="I12" s="26">
         <v>322.32</v>
       </c>
-      <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="K12" s="21"/>
+      <c r="L12" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M12" s="21">
         <v>2</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="38"/>
+      <c r="O12" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="26">
+      <c r="I13" s="26">
         <v>479.52</v>
       </c>
-      <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L13" s="21">
-        <v>3</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="17" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M13" s="21">
+        <v>3</v>
+      </c>
+      <c r="N13" s="38"/>
+      <c r="O13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="18" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I14" s="26">
         <v>195.84</v>
       </c>
-      <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L14" s="21">
-        <v>3</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="17" t="s">
+      <c r="K14" s="21"/>
+      <c r="L14" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M14" s="21">
+        <v>3</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="26">
+      <c r="I15" s="26">
         <v>139.12</v>
       </c>
-      <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L15" s="21">
-        <v>3</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="17" t="s">
+      <c r="K15" s="21"/>
+      <c r="L15" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M15" s="21">
+        <v>3</v>
+      </c>
+      <c r="N15" s="38"/>
+      <c r="O15" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="18" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="26">
+      <c r="I16" s="26">
         <v>391.68</v>
       </c>
-      <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L16" s="21">
-        <v>3</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="17" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M16" s="21">
+        <v>3</v>
+      </c>
+      <c r="N16" s="38"/>
+      <c r="O16" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="18" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="26">
+      <c r="I17" s="26">
         <v>97.92</v>
       </c>
-      <c r="I17" s="21"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L17" s="21">
-        <v>3</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="17" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M17" s="21">
+        <v>3</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="18" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="I18" s="26">
         <v>391.68</v>
       </c>
-      <c r="I18" s="21"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L18" s="21">
-        <v>3</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="17" t="s">
+      <c r="K18" s="21"/>
+      <c r="L18" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M18" s="21">
+        <v>3</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="18" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="26">
+      <c r="I19" s="26">
         <v>781.21</v>
       </c>
-      <c r="I19" s="21"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L19" s="21">
-        <v>3</v>
-      </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="17" t="s">
+      <c r="K19" s="21"/>
+      <c r="L19" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M19" s="21">
+        <v>3</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="18" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="I20" s="26">
         <v>541.44000000000005</v>
       </c>
-      <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L20" s="21">
-        <v>3</v>
-      </c>
-      <c r="M20" s="38"/>
-      <c r="N20" s="17" t="s">
+      <c r="K20" s="21"/>
+      <c r="L20" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M20" s="21">
+        <v>3</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="18" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="31">
+      <c r="I21" s="31">
         <v>881.61</v>
       </c>
-      <c r="I21" s="21"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L21" s="21">
-        <v>3</v>
-      </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="17" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M21" s="21">
+        <v>3</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="18" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="33">
+      <c r="I22" s="33">
         <v>100.64</v>
       </c>
-      <c r="I22" s="21"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L22" s="21">
-        <v>3</v>
-      </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="17" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M22" s="21">
+        <v>3</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="32">
+      <c r="I23" s="32">
         <v>99</v>
       </c>
-      <c r="I23" s="21"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L23" s="21">
-        <v>3</v>
-      </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="17" t="s">
+      <c r="K23" s="21"/>
+      <c r="L23" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M23" s="21">
+        <v>3</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="18" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="27">
+      <c r="I24" s="27">
         <v>99</v>
       </c>
-      <c r="I24" s="21"/>
       <c r="J24" s="21"/>
-      <c r="K24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L24" s="21">
-        <v>3</v>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="17" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M24" s="21">
+        <v>3</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="18" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="27">
+      <c r="I25" s="27">
         <v>66</v>
       </c>
-      <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L25" s="21">
-        <v>3</v>
-      </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="17" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M25" s="21">
+        <v>3</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="18" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="27">
+      <c r="I26" s="27">
         <v>66</v>
       </c>
-      <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L26" s="21">
-        <v>3</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="17" t="s">
+      <c r="K26" s="21"/>
+      <c r="L26" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M26" s="21">
+        <v>3</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="18" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="27">
+      <c r="I27" s="27">
         <v>415.87</v>
       </c>
-      <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L27" s="21">
-        <v>3</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="17" t="s">
+      <c r="K27" s="21"/>
+      <c r="L27" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M27" s="21">
+        <v>3</v>
+      </c>
+      <c r="N27" s="38"/>
+      <c r="O27" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="52"/>
+      <c r="D28" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="27">
+      <c r="I28" s="27">
         <v>456.72</v>
       </c>
-      <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L28" s="21">
-        <v>3</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="17" t="s">
+      <c r="K28" s="21"/>
+      <c r="L28" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M28" s="21">
+        <v>3</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="18" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="27">
+      <c r="I29" s="27">
         <v>265.76</v>
       </c>
-      <c r="I29" s="21"/>
       <c r="J29" s="21"/>
-      <c r="K29" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L29" s="21">
-        <v>3</v>
-      </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="17" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M29" s="21">
+        <v>3</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="18" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="27">
+      <c r="I30" s="27">
         <v>111.3</v>
       </c>
-      <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L30" s="21">
-        <v>3</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="17" t="s">
+      <c r="K30" s="21"/>
+      <c r="L30" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M30" s="21">
+        <v>3</v>
+      </c>
+      <c r="N30" s="38"/>
+      <c r="O30" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="18" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H31" s="27">
+      <c r="I31" s="27">
         <v>859.76</v>
       </c>
-      <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L31" s="21">
-        <v>3</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="17" t="s">
+      <c r="K31" s="21"/>
+      <c r="L31" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M31" s="21">
+        <v>3</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="44" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="27">
+      <c r="I32" s="27">
         <v>202.92</v>
       </c>
-      <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L32" s="21">
-        <v>3</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="17" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M32" s="21">
+        <v>3</v>
+      </c>
+      <c r="N32" s="38"/>
+      <c r="O32" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="18" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="27">
+      <c r="I33" s="27">
         <v>132</v>
       </c>
-      <c r="I33" s="21"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L33" s="21">
-        <v>3</v>
-      </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="17" t="s">
+      <c r="K33" s="21"/>
+      <c r="L33" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M33" s="21">
+        <v>3</v>
+      </c>
+      <c r="N33" s="38"/>
+      <c r="O33" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="18" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="27">
+      <c r="I34" s="27">
         <v>118.8</v>
       </c>
-      <c r="I34" s="21"/>
       <c r="J34" s="21"/>
-      <c r="K34" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L34" s="21">
-        <v>3</v>
-      </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="17" t="s">
+      <c r="K34" s="21"/>
+      <c r="L34" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M34" s="21">
+        <v>3</v>
+      </c>
+      <c r="N34" s="38"/>
+      <c r="O34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="18" t="s">
+      <c r="C35" s="52"/>
+      <c r="D35" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="H35" s="28">
+      <c r="I35" s="28">
         <v>1083.68</v>
       </c>
-      <c r="I35" s="21"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L35" s="21">
-        <v>3</v>
-      </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="17" t="s">
+      <c r="K35" s="21"/>
+      <c r="L35" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M35" s="21">
+        <v>3</v>
+      </c>
+      <c r="N35" s="38"/>
+      <c r="O35" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="18" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="27">
+      <c r="I36" s="27">
         <v>334.88</v>
       </c>
-      <c r="I36" s="21"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L36" s="21">
-        <v>3</v>
-      </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="17" t="s">
+      <c r="K36" s="21"/>
+      <c r="L36" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M36" s="21">
+        <v>3</v>
+      </c>
+      <c r="N36" s="38"/>
+      <c r="O36" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="44" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="27">
+      <c r="I37" s="27">
         <v>931.35</v>
       </c>
-      <c r="I37" s="21"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L37" s="21">
-        <v>3</v>
-      </c>
-      <c r="M37" s="38"/>
-      <c r="N37" s="17" t="s">
+      <c r="K37" s="21"/>
+      <c r="L37" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M37" s="21">
+        <v>3</v>
+      </c>
+      <c r="N37" s="38"/>
+      <c r="O37" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="18" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="27">
+      <c r="I38" s="27">
         <v>329.88</v>
       </c>
-      <c r="I38" s="21"/>
       <c r="J38" s="21"/>
-      <c r="K38" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L38" s="21">
-        <v>3</v>
-      </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="17" t="s">
+      <c r="K38" s="21"/>
+      <c r="L38" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M38" s="21">
+        <v>3</v>
+      </c>
+      <c r="N38" s="38"/>
+      <c r="O38" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="18" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="27">
+      <c r="I39" s="27">
         <v>282.39999999999998</v>
       </c>
-      <c r="I39" s="21"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L39" s="21">
-        <v>3</v>
-      </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="17" t="s">
+      <c r="K39" s="21"/>
+      <c r="L39" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M39" s="21">
+        <v>3</v>
+      </c>
+      <c r="N39" s="38"/>
+      <c r="O39" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="18" t="s">
+      <c r="C40" s="52"/>
+      <c r="D40" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="27">
+      <c r="I40" s="27">
         <v>64.8</v>
       </c>
-      <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L40" s="21">
-        <v>3</v>
-      </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="17" t="s">
+      <c r="K40" s="21"/>
+      <c r="L40" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M40" s="21">
+        <v>3</v>
+      </c>
+      <c r="N40" s="38"/>
+      <c r="O40" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="18" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="27">
+      <c r="I41" s="27">
         <v>135.88</v>
       </c>
-      <c r="I41" s="21"/>
       <c r="J41" s="21"/>
-      <c r="K41" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L41" s="21">
-        <v>3</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="17" t="s">
+      <c r="K41" s="21"/>
+      <c r="L41" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M41" s="21">
+        <v>3</v>
+      </c>
+      <c r="N41" s="38"/>
+      <c r="O41" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="18" t="s">
+      <c r="C42" s="52"/>
+      <c r="D42" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="27">
+      <c r="I42" s="27">
         <v>64.8</v>
       </c>
-      <c r="I42" s="21"/>
       <c r="J42" s="21"/>
-      <c r="K42" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L42" s="21">
-        <v>3</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="17" t="s">
+      <c r="K42" s="21"/>
+      <c r="L42" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M42" s="21">
+        <v>3</v>
+      </c>
+      <c r="N42" s="38"/>
+      <c r="O42" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
       <c r="B43" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="18" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H43" s="27">
+      <c r="I43" s="27">
         <v>609.76</v>
       </c>
-      <c r="I43" s="21"/>
       <c r="J43" s="21"/>
-      <c r="K43" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L43" s="21">
-        <v>3</v>
-      </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="17" t="s">
+      <c r="K43" s="21"/>
+      <c r="L43" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M43" s="21">
+        <v>3</v>
+      </c>
+      <c r="N43" s="38"/>
+      <c r="O43" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="18" t="s">
+      <c r="C44" s="52"/>
+      <c r="D44" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="27">
+      <c r="I44" s="27">
         <v>602.96</v>
       </c>
-      <c r="I44" s="21"/>
       <c r="J44" s="21"/>
-      <c r="K44" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L44" s="21">
-        <v>3</v>
-      </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="17" t="s">
+      <c r="K44" s="21"/>
+      <c r="L44" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M44" s="21">
+        <v>3</v>
+      </c>
+      <c r="N44" s="38"/>
+      <c r="O44" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="18" t="s">
+      <c r="C45" s="52"/>
+      <c r="D45" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H45" s="27">
+      <c r="I45" s="27">
         <v>59.84</v>
       </c>
-      <c r="I45" s="21"/>
       <c r="J45" s="21"/>
-      <c r="K45" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L45" s="21">
-        <v>3</v>
-      </c>
-      <c r="M45" s="38"/>
-      <c r="N45" s="17" t="s">
+      <c r="K45" s="21"/>
+      <c r="L45" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M45" s="21">
+        <v>3</v>
+      </c>
+      <c r="N45" s="38"/>
+      <c r="O45" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="18" t="s">
+      <c r="C46" s="52"/>
+      <c r="D46" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="27">
+      <c r="I46" s="27">
         <v>90.8</v>
       </c>
-      <c r="I46" s="21"/>
       <c r="J46" s="21"/>
-      <c r="K46" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L46" s="21">
-        <v>3</v>
-      </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="17" t="s">
+      <c r="K46" s="21"/>
+      <c r="L46" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M46" s="21">
+        <v>3</v>
+      </c>
+      <c r="N46" s="38"/>
+      <c r="O46" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="18" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="H47" s="27">
+      <c r="I47" s="27">
         <v>318.56</v>
       </c>
-      <c r="I47" s="21"/>
       <c r="J47" s="21"/>
-      <c r="K47" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L47" s="21">
-        <v>3</v>
-      </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="17" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M47" s="21">
+        <v>3</v>
+      </c>
+      <c r="N47" s="38"/>
+      <c r="O47" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="18" t="s">
+      <c r="C48" s="52"/>
+      <c r="D48" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="27">
+      <c r="I48" s="27">
         <v>63</v>
       </c>
-      <c r="I48" s="21"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L48" s="21">
-        <v>3</v>
-      </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="17" t="s">
+      <c r="K48" s="21"/>
+      <c r="L48" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M48" s="21">
+        <v>3</v>
+      </c>
+      <c r="N48" s="38"/>
+      <c r="O48" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="18" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="27">
+      <c r="I49" s="27">
         <v>464.56</v>
       </c>
-      <c r="I49" s="21"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L49" s="21">
-        <v>3</v>
-      </c>
-      <c r="M49" s="38"/>
-      <c r="N49" s="17" t="s">
+      <c r="K49" s="21"/>
+      <c r="L49" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M49" s="21">
+        <v>3</v>
+      </c>
+      <c r="N49" s="38"/>
+      <c r="O49" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="18" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="27">
+      <c r="I50" s="27">
         <v>126.36</v>
       </c>
-      <c r="I50" s="21"/>
       <c r="J50" s="21"/>
-      <c r="K50" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L50" s="21">
-        <v>3</v>
-      </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="17" t="s">
+      <c r="K50" s="21"/>
+      <c r="L50" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M50" s="21">
+        <v>3</v>
+      </c>
+      <c r="N50" s="38"/>
+      <c r="O50" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="18" t="s">
+      <c r="C51" s="52"/>
+      <c r="D51" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="H51" s="27">
+      <c r="I51" s="27">
         <v>148.52000000000001</v>
       </c>
-      <c r="I51" s="21"/>
       <c r="J51" s="21"/>
-      <c r="K51" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L51" s="21">
-        <v>3</v>
-      </c>
-      <c r="M51" s="38"/>
-      <c r="N51" s="17" t="s">
+      <c r="K51" s="21"/>
+      <c r="L51" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M51" s="21">
+        <v>3</v>
+      </c>
+      <c r="N51" s="38"/>
+      <c r="O51" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="18" t="s">
+      <c r="C52" s="52"/>
+      <c r="D52" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="27">
+      <c r="I52" s="27">
         <v>511.44</v>
       </c>
-      <c r="I52" s="21"/>
       <c r="J52" s="21"/>
-      <c r="K52" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L52" s="21">
-        <v>3</v>
-      </c>
-      <c r="M52" s="38"/>
-      <c r="N52" s="17" t="s">
+      <c r="K52" s="21"/>
+      <c r="L52" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M52" s="21">
+        <v>3</v>
+      </c>
+      <c r="N52" s="38"/>
+      <c r="O52" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="18" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="27">
+      <c r="I53" s="27">
         <v>31.5</v>
       </c>
-      <c r="I53" s="21"/>
       <c r="J53" s="21"/>
-      <c r="K53" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L53" s="21">
-        <v>3</v>
-      </c>
-      <c r="M53" s="38"/>
-      <c r="N53" s="17" t="s">
+      <c r="K53" s="21"/>
+      <c r="L53" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M53" s="21">
+        <v>3</v>
+      </c>
+      <c r="N53" s="38"/>
+      <c r="O53" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="18" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="27">
+      <c r="I54" s="27">
         <v>60.96</v>
       </c>
-      <c r="I54" s="21"/>
       <c r="J54" s="21"/>
-      <c r="K54" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L54" s="21">
-        <v>3</v>
-      </c>
-      <c r="M54" s="38"/>
-      <c r="N54" s="17" t="s">
+      <c r="K54" s="21"/>
+      <c r="L54" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M54" s="21">
+        <v>3</v>
+      </c>
+      <c r="N54" s="38"/>
+      <c r="O54" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
       <c r="B55" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="18" t="s">
+      <c r="C55" s="52"/>
+      <c r="D55" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="20" t="s">
+      <c r="G55" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="27">
+      <c r="I55" s="27">
         <v>826.56</v>
       </c>
-      <c r="I55" s="21"/>
       <c r="J55" s="21"/>
-      <c r="K55" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L55" s="21">
-        <v>3</v>
-      </c>
-      <c r="M55" s="38"/>
-      <c r="N55" s="17" t="s">
+      <c r="K55" s="21"/>
+      <c r="L55" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M55" s="21">
+        <v>3</v>
+      </c>
+      <c r="N55" s="38"/>
+      <c r="O55" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="18" t="s">
+      <c r="C56" s="52"/>
+      <c r="D56" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="27">
+      <c r="I56" s="27">
         <v>127.8</v>
       </c>
-      <c r="I56" s="21"/>
       <c r="J56" s="21"/>
-      <c r="K56" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L56" s="21">
-        <v>3</v>
-      </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="17" t="s">
+      <c r="K56" s="21"/>
+      <c r="L56" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M56" s="21">
+        <v>3</v>
+      </c>
+      <c r="N56" s="38"/>
+      <c r="O56" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="18" t="s">
+      <c r="C57" s="52"/>
+      <c r="D57" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="27">
+      <c r="I57" s="27">
         <v>202.4</v>
       </c>
-      <c r="I57" s="21"/>
       <c r="J57" s="21"/>
-      <c r="K57" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L57" s="21">
-        <v>3</v>
-      </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="17" t="s">
+      <c r="K57" s="21"/>
+      <c r="L57" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M57" s="21">
+        <v>3</v>
+      </c>
+      <c r="N57" s="38"/>
+      <c r="O57" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
       <c r="B58" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="18" t="s">
+      <c r="C58" s="52"/>
+      <c r="D58" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="27">
+      <c r="I58" s="27">
         <v>257.31</v>
       </c>
-      <c r="I58" s="21"/>
       <c r="J58" s="21"/>
-      <c r="K58" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L58" s="21">
-        <v>3</v>
-      </c>
-      <c r="M58" s="38"/>
-      <c r="N58" s="17" t="s">
+      <c r="K58" s="21"/>
+      <c r="L58" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M58" s="21">
+        <v>3</v>
+      </c>
+      <c r="N58" s="38"/>
+      <c r="O58" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="18" t="s">
+      <c r="C59" s="52"/>
+      <c r="D59" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H59" s="28">
+      <c r="I59" s="28">
         <v>1143.71</v>
       </c>
-      <c r="I59" s="21"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L59" s="21">
-        <v>3</v>
-      </c>
-      <c r="M59" s="38"/>
-      <c r="N59" s="17" t="s">
+      <c r="K59" s="21"/>
+      <c r="L59" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M59" s="21">
+        <v>3</v>
+      </c>
+      <c r="N59" s="38"/>
+      <c r="O59" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="18" t="s">
+      <c r="C60" s="51"/>
+      <c r="D60" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H60" s="27">
+      <c r="I60" s="27">
         <v>31.5</v>
       </c>
-      <c r="I60" s="21"/>
       <c r="J60" s="21"/>
-      <c r="K60" s="16">
-        <v>4800</v>
-      </c>
-      <c r="L60" s="21">
-        <v>3</v>
-      </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="17" t="s">
+      <c r="K60" s="21"/>
+      <c r="L60" s="16">
+        <v>4800</v>
+      </c>
+      <c r="M60" s="21">
+        <v>3</v>
+      </c>
+      <c r="N60" s="38"/>
+      <c r="O60" s="17" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:P1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C23:C60"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:C22"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D22"/>
-    <mergeCell ref="C23:C60"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D37:D60"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -4828,7 +5112,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="56">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -4851,7 +5135,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4872,7 +5156,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4916,7 +5200,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -4939,7 +5223,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV_3_Nevron_1205\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDFFA9F-2DAF-4927-9698-A11D678CA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9D0CB-6B0A-4567-95DF-B7D610B4957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1530" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1410" windowWidth="28770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data_Module" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,29 @@
   <definedNames>
     <definedName name="H">Edge!$P$11:$P$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="180">
-  <si>
-    <t>A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="186">
   <si>
     <t>Purple</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -124,9 +131,6 @@
   </si>
   <si>
     <t>relationship</t>
-  </si>
-  <si>
-    <t>category</t>
   </si>
   <si>
     <t>color</t>
@@ -779,6 +783,33 @@
   </si>
   <si>
     <t>Group color</t>
+  </si>
+  <si>
+    <t>Group area</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>laboratory facility</t>
+  </si>
+  <si>
+    <t>10500</t>
+  </si>
+  <si>
+    <t>8900</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>7500</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1307,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1412,53 +1443,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2624,7 +2652,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2641,88 +2669,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.6" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
+      <c r="A1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1" thickTop="1">
@@ -2730,25 +2758,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>1</v>
       </c>
       <c r="I4" s="24">
         <v>805.12</v>
@@ -2763,7 +2791,7 @@
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2771,23 +2799,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="60" t="s">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>176</v>
       </c>
       <c r="I5" s="25">
         <v>3983.44</v>
@@ -2802,7 +2830,7 @@
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2810,23 +2838,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="60" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="46" t="s">
+        <v>179</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I6" s="25">
         <v>5615.03</v>
@@ -2841,7 +2869,7 @@
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.85" customHeight="1">
@@ -2849,23 +2877,23 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="60" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I7" s="25">
         <v>1885.68</v>
@@ -2880,7 +2908,7 @@
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2888,23 +2916,23 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="60" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I8" s="25">
         <v>2495.8000000000002</v>
@@ -2919,7 +2947,7 @@
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2927,23 +2955,23 @@
         <v>6</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="60" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="46" t="s">
+        <v>87</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="26">
         <v>475.39</v>
@@ -2958,7 +2986,7 @@
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2966,23 +2994,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="60" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I10" s="25">
         <v>7368</v>
@@ -2997,7 +3025,7 @@
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3005,23 +3033,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="60" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I11" s="25">
         <v>1499.07</v>
@@ -3036,7 +3064,7 @@
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3044,23 +3072,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="60" t="s">
-        <v>88</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I12" s="26">
         <v>322.32</v>
@@ -3075,7 +3103,7 @@
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3083,23 +3111,23 @@
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="60" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I13" s="26">
         <v>479.52</v>
@@ -3114,7 +3142,7 @@
       </c>
       <c r="N13" s="38"/>
       <c r="O13" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3122,23 +3150,23 @@
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="60" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I14" s="26">
         <v>195.84</v>
@@ -3153,7 +3181,7 @@
       </c>
       <c r="N14" s="38"/>
       <c r="O14" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3161,23 +3189,23 @@
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="60" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I15" s="26">
         <v>139.12</v>
@@ -3192,7 +3220,7 @@
       </c>
       <c r="N15" s="38"/>
       <c r="O15" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3200,23 +3228,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="60" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I16" s="26">
         <v>391.68</v>
@@ -3231,7 +3259,7 @@
       </c>
       <c r="N16" s="38"/>
       <c r="O16" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3239,23 +3267,23 @@
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="60" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I17" s="26">
         <v>97.92</v>
@@ -3270,7 +3298,7 @@
       </c>
       <c r="N17" s="38"/>
       <c r="O17" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3278,23 +3306,23 @@
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="60" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I18" s="26">
         <v>391.68</v>
@@ -3309,7 +3337,7 @@
       </c>
       <c r="N18" s="38"/>
       <c r="O18" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3317,23 +3345,23 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="60" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I19" s="26">
         <v>781.21</v>
@@ -3348,7 +3376,7 @@
       </c>
       <c r="N19" s="38"/>
       <c r="O19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3356,23 +3384,23 @@
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="60" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I20" s="26">
         <v>541.44000000000005</v>
@@ -3387,7 +3415,7 @@
       </c>
       <c r="N20" s="38"/>
       <c r="O20" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3395,23 +3423,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="60" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I21" s="31">
         <v>881.61</v>
@@ -3426,7 +3454,7 @@
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3434,23 +3462,23 @@
         <v>19</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="60" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I22" s="33">
         <v>100.64</v>
@@ -3465,7 +3493,7 @@
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3473,25 +3501,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I23" s="32">
         <v>99</v>
@@ -3506,7 +3534,7 @@
       </c>
       <c r="N23" s="38"/>
       <c r="O23" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3514,23 +3542,23 @@
         <v>21</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="60" t="s">
-        <v>147</v>
+        <v>105</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I24" s="27">
         <v>99</v>
@@ -3545,7 +3573,7 @@
       </c>
       <c r="N24" s="38"/>
       <c r="O24" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3553,23 +3581,23 @@
         <v>22</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="60" t="s">
-        <v>147</v>
+        <v>106</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I25" s="27">
         <v>66</v>
@@ -3584,7 +3612,7 @@
       </c>
       <c r="N25" s="38"/>
       <c r="O25" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3592,23 +3620,23 @@
         <v>23</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="60" t="s">
-        <v>147</v>
+        <v>107</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G26" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I26" s="27">
         <v>66</v>
@@ -3623,7 +3651,7 @@
       </c>
       <c r="N26" s="38"/>
       <c r="O26" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3631,23 +3659,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="60" t="s">
-        <v>147</v>
+        <v>108</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I27" s="27">
         <v>415.87</v>
@@ -3662,7 +3690,7 @@
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3670,23 +3698,23 @@
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="60" t="s">
-        <v>147</v>
+        <v>109</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I28" s="27">
         <v>456.72</v>
@@ -3701,7 +3729,7 @@
       </c>
       <c r="N28" s="38"/>
       <c r="O28" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3709,23 +3737,23 @@
         <v>26</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="60" t="s">
-        <v>147</v>
+        <v>110</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G29" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I29" s="27">
         <v>265.76</v>
@@ -3740,7 +3768,7 @@
       </c>
       <c r="N29" s="38"/>
       <c r="O29" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3748,23 +3776,23 @@
         <v>27</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="60" t="s">
-        <v>147</v>
+        <v>111</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I30" s="27">
         <v>111.3</v>
@@ -3779,7 +3807,7 @@
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3787,23 +3815,23 @@
         <v>28</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="60" t="s">
-        <v>147</v>
+        <v>112</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I31" s="27">
         <v>859.76</v>
@@ -3818,7 +3846,7 @@
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3826,23 +3854,23 @@
         <v>29</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="60" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I32" s="27">
         <v>202.92</v>
@@ -3857,7 +3885,7 @@
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3865,23 +3893,23 @@
         <v>30</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="60" t="s">
-        <v>89</v>
+        <v>114</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I33" s="27">
         <v>132</v>
@@ -3896,7 +3924,7 @@
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3904,23 +3932,23 @@
         <v>31</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="60" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G34" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I34" s="27">
         <v>118.8</v>
@@ -3935,7 +3963,7 @@
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3943,23 +3971,23 @@
         <v>32</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="60" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I35" s="28">
         <v>1083.68</v>
@@ -3974,7 +4002,7 @@
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3982,23 +4010,23 @@
         <v>33</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="60" t="s">
-        <v>89</v>
+        <v>117</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="46" t="s">
+        <v>86</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I36" s="27">
         <v>334.88</v>
@@ -4013,7 +4041,7 @@
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4021,23 +4049,23 @@
         <v>34</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="60" t="s">
-        <v>88</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I37" s="27">
         <v>931.35</v>
@@ -4052,7 +4080,7 @@
       </c>
       <c r="N37" s="38"/>
       <c r="O37" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4060,23 +4088,23 @@
         <v>35</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>174</v>
+        <v>119</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G38" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I38" s="27">
         <v>329.88</v>
@@ -4091,7 +4119,7 @@
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4099,23 +4127,23 @@
         <v>36</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>174</v>
+        <v>120</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I39" s="27">
         <v>282.39999999999998</v>
@@ -4130,7 +4158,7 @@
       </c>
       <c r="N39" s="38"/>
       <c r="O39" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4138,23 +4166,23 @@
         <v>37</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>174</v>
+        <v>121</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G40" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I40" s="27">
         <v>64.8</v>
@@ -4169,7 +4197,7 @@
       </c>
       <c r="N40" s="38"/>
       <c r="O40" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4177,23 +4205,23 @@
         <v>38</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="48"/>
+      <c r="D41" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="I41" s="27">
         <v>135.88</v>
@@ -4208,7 +4236,7 @@
       </c>
       <c r="N41" s="38"/>
       <c r="O41" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4216,23 +4244,23 @@
         <v>39</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>174</v>
+        <v>79</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I42" s="27">
         <v>64.8</v>
@@ -4247,7 +4275,7 @@
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4255,23 +4283,23 @@
         <v>40</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>174</v>
+        <v>123</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I43" s="27">
         <v>609.76</v>
@@ -4286,7 +4314,7 @@
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4294,23 +4322,23 @@
         <v>41</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>174</v>
+        <v>124</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I44" s="27">
         <v>602.96</v>
@@ -4325,7 +4353,7 @@
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4333,23 +4361,23 @@
         <v>42</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>174</v>
+        <v>125</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I45" s="27">
         <v>59.84</v>
@@ -4364,7 +4392,7 @@
       </c>
       <c r="N45" s="38"/>
       <c r="O45" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4372,23 +4400,23 @@
         <v>43</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>174</v>
+        <v>126</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G46" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I46" s="27">
         <v>90.8</v>
@@ -4403,7 +4431,7 @@
       </c>
       <c r="N46" s="38"/>
       <c r="O46" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4411,23 +4439,23 @@
         <v>44</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>174</v>
+        <v>127</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I47" s="27">
         <v>318.56</v>
@@ -4442,7 +4470,7 @@
       </c>
       <c r="N47" s="38"/>
       <c r="O47" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4450,23 +4478,23 @@
         <v>45</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>174</v>
+        <v>128</v>
+      </c>
+      <c r="C48" s="48"/>
+      <c r="D48" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G48" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I48" s="27">
         <v>63</v>
@@ -4481,7 +4509,7 @@
       </c>
       <c r="N48" s="38"/>
       <c r="O48" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4489,23 +4517,23 @@
         <v>46</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>174</v>
+        <v>81</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G49" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I49" s="27">
         <v>464.56</v>
@@ -4520,7 +4548,7 @@
       </c>
       <c r="N49" s="38"/>
       <c r="O49" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4528,23 +4556,23 @@
         <v>47</v>
       </c>
       <c r="B50" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>174</v>
+      <c r="E50" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G50" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I50" s="27">
         <v>126.36</v>
@@ -4559,7 +4587,7 @@
       </c>
       <c r="N50" s="38"/>
       <c r="O50" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4567,23 +4595,23 @@
         <v>48</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="45" t="s">
-        <v>174</v>
+        <v>129</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I51" s="27">
         <v>148.52000000000001</v>
@@ -4598,7 +4626,7 @@
       </c>
       <c r="N51" s="38"/>
       <c r="O51" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4606,23 +4634,23 @@
         <v>49</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="I52" s="27">
         <v>511.44</v>
@@ -4637,7 +4665,7 @@
       </c>
       <c r="N52" s="38"/>
       <c r="O52" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4645,23 +4673,23 @@
         <v>50</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>174</v>
+        <v>131</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I53" s="27">
         <v>31.5</v>
@@ -4676,7 +4704,7 @@
       </c>
       <c r="N53" s="38"/>
       <c r="O53" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4684,23 +4712,23 @@
         <v>51</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>174</v>
+        <v>76</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I54" s="27">
         <v>60.96</v>
@@ -4715,7 +4743,7 @@
       </c>
       <c r="N54" s="38"/>
       <c r="O54" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4723,23 +4751,23 @@
         <v>52</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="45" t="s">
-        <v>174</v>
+        <v>132</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G55" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I55" s="27">
         <v>826.56</v>
@@ -4754,7 +4782,7 @@
       </c>
       <c r="N55" s="38"/>
       <c r="O55" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4762,23 +4790,23 @@
         <v>53</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>174</v>
+        <v>77</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G56" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I56" s="27">
         <v>127.8</v>
@@ -4793,7 +4821,7 @@
       </c>
       <c r="N56" s="38"/>
       <c r="O56" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4801,23 +4829,23 @@
         <v>54</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>177</v>
       </c>
       <c r="I57" s="27">
         <v>202.4</v>
@@ -4832,7 +4860,7 @@
       </c>
       <c r="N57" s="38"/>
       <c r="O57" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4840,23 +4868,23 @@
         <v>55</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>174</v>
+        <v>134</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G58" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I58" s="27">
         <v>257.31</v>
@@ -4871,7 +4899,7 @@
       </c>
       <c r="N58" s="38"/>
       <c r="O58" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4879,23 +4907,23 @@
         <v>56</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>174</v>
+        <v>135</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I59" s="28">
         <v>1143.71</v>
@@ -4910,7 +4938,7 @@
       </c>
       <c r="N59" s="38"/>
       <c r="O59" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4918,23 +4946,23 @@
         <v>57</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>174</v>
+        <v>136</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G60" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>1</v>
       </c>
       <c r="I60" s="27">
         <v>31.5</v>
@@ -4949,7 +4977,7 @@
       </c>
       <c r="N60" s="38"/>
       <c r="O60" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4982,90 +5010,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5093,26 +5121,26 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="58">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -5122,20 +5150,20 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -5143,20 +5171,20 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5164,16 +5192,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5187,20 +5215,20 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58">
+      <c r="A6" s="59">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -5210,20 +5238,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -5231,16 +5259,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syntegrate\source\repos\DEV_3_Nevron_1205\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9D0CB-6B0A-4567-95DF-B7D610B4957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32FF8C-E46C-414B-97AD-8F27CBAFEBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1410" windowWidth="28770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data_Module" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,11 @@
     <definedName name="H">Edge!$P$11:$P$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="187">
   <si>
     <t>Purple</t>
   </si>
@@ -456,22 +443,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Common use facility</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>public facilities</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>laboratory facility</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>research facility</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -684,10 +655,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>business facilities</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>administrative dong</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -791,25 +758,43 @@
     <t>4800</t>
   </si>
   <si>
-    <t>laboratory facility</t>
-  </si>
-  <si>
     <t>10500</t>
   </si>
   <si>
     <t>8900</t>
   </si>
   <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>7500</t>
+    <t>Research Facility</t>
+  </si>
+  <si>
+    <t>Laboratory Facility</t>
+  </si>
+  <si>
+    <t>Business Facilities</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Common Use Facility 1</t>
+  </si>
+  <si>
+    <t>Common Use Facility 2</t>
+  </si>
+  <si>
+    <t>Public Facilities 2</t>
+  </si>
+  <si>
+    <t>Public Facilities 1</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>20500</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -2649,23 +2634,23 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41:G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="43" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="43" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="17" width="16.28515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.28515625" style="1"/>
+    <col min="9" max="17" width="16.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.6" customHeight="1">
@@ -2716,23 +2701,23 @@
         <v>29</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>32</v>
@@ -2747,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>36</v>
@@ -2764,16 +2749,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>0</v>
@@ -2803,19 +2788,19 @@
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="46" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I5" s="25">
         <v>3983.44</v>
@@ -2842,19 +2827,19 @@
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I6" s="25">
         <v>5615.03</v>
@@ -2881,19 +2866,19 @@
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="46" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I7" s="25">
         <v>1885.68</v>
@@ -2920,19 +2905,19 @@
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="46" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I8" s="25">
         <v>2495.8000000000002</v>
@@ -2959,16 +2944,16 @@
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="46" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>0</v>
@@ -2998,19 +2983,19 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="46" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I10" s="25">
         <v>7368</v>
@@ -3037,19 +3022,19 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="46" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I11" s="25">
         <v>1499.07</v>
@@ -3076,16 +3061,16 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>0</v>
@@ -3115,19 +3100,19 @@
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I13" s="26">
         <v>479.52</v>
@@ -3154,16 +3139,16 @@
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>0</v>
@@ -3193,19 +3178,19 @@
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I15" s="26">
         <v>139.12</v>
@@ -3232,19 +3217,19 @@
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I16" s="26">
         <v>391.68</v>
@@ -3271,19 +3256,19 @@
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I17" s="26">
         <v>97.92</v>
@@ -3310,16 +3295,16 @@
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>0</v>
@@ -3349,19 +3334,19 @@
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I19" s="26">
         <v>781.21</v>
@@ -3388,16 +3373,16 @@
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>0</v>
@@ -3427,19 +3412,19 @@
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I21" s="31">
         <v>881.61</v>
@@ -3466,16 +3451,16 @@
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="46" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>0</v>
@@ -3501,22 +3486,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>0</v>
@@ -3542,20 +3527,20 @@
         <v>21</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>0</v>
@@ -3581,23 +3566,23 @@
         <v>22</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I25" s="27">
         <v>66</v>
@@ -3620,20 +3605,20 @@
         <v>23</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>0</v>
@@ -3659,20 +3644,20 @@
         <v>24</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>0</v>
@@ -3698,23 +3683,23 @@
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I28" s="27">
         <v>456.72</v>
@@ -3737,20 +3722,20 @@
         <v>26</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>0</v>
@@ -3776,20 +3761,20 @@
         <v>27</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>0</v>
@@ -3815,23 +3800,23 @@
         <v>28</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="46" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>63</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I31" s="27">
         <v>859.76</v>
@@ -3854,20 +3839,20 @@
         <v>29</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="46" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>0</v>
@@ -3893,23 +3878,23 @@
         <v>30</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="46" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I33" s="27">
         <v>132</v>
@@ -3932,20 +3917,20 @@
         <v>31</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="46" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>0</v>
@@ -3971,23 +3956,23 @@
         <v>32</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="46" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I35" s="28">
         <v>1083.68</v>
@@ -4010,23 +3995,23 @@
         <v>33</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="46" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I36" s="27">
         <v>334.88</v>
@@ -4049,14 +4034,14 @@
         <v>34</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>69</v>
@@ -4065,7 +4050,7 @@
         <v>185</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I37" s="27">
         <v>931.35</v>
@@ -4088,14 +4073,14 @@
         <v>35</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>70</v>
@@ -4127,23 +4112,23 @@
         <v>36</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>185</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I39" s="27">
         <v>282.39999999999998</v>
@@ -4166,20 +4151,20 @@
         <v>37</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>0</v>
@@ -4205,23 +4190,23 @@
         <v>38</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" s="48"/>
       <c r="D41" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I41" s="27">
         <v>135.88</v>
@@ -4248,19 +4233,19 @@
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I42" s="27">
         <v>64.8</v>
@@ -4283,23 +4268,23 @@
         <v>40</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" s="48"/>
       <c r="D43" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I43" s="27">
         <v>609.76</v>
@@ -4322,20 +4307,20 @@
         <v>41</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C44" s="48"/>
       <c r="D44" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>0</v>
@@ -4361,23 +4346,23 @@
         <v>42</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C45" s="48"/>
       <c r="D45" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I45" s="27">
         <v>59.84</v>
@@ -4400,20 +4385,20 @@
         <v>43</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C46" s="48"/>
       <c r="D46" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>0</v>
@@ -4439,23 +4424,23 @@
         <v>44</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C47" s="48"/>
       <c r="D47" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I47" s="27">
         <v>318.56</v>
@@ -4478,20 +4463,20 @@
         <v>45</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" s="48"/>
       <c r="D48" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>0</v>
@@ -4521,16 +4506,16 @@
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>0</v>
@@ -4560,16 +4545,16 @@
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>0</v>
@@ -4595,23 +4580,23 @@
         <v>48</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I51" s="27">
         <v>148.52000000000001</v>
@@ -4634,23 +4619,23 @@
         <v>49</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I52" s="27">
         <v>511.44</v>
@@ -4673,20 +4658,20 @@
         <v>50</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H53" s="20" t="s">
         <v>0</v>
@@ -4716,19 +4701,19 @@
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I54" s="27">
         <v>60.96</v>
@@ -4751,20 +4736,20 @@
         <v>52</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" s="48"/>
       <c r="D55" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>0</v>
@@ -4794,16 +4779,16 @@
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>0</v>
@@ -4829,23 +4814,23 @@
         <v>54</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I57" s="27">
         <v>202.4</v>
@@ -4868,20 +4853,20 @@
         <v>55</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C58" s="48"/>
       <c r="D58" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>0</v>
@@ -4907,23 +4892,23 @@
         <v>56</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I59" s="28">
         <v>1143.71</v>
@@ -4946,20 +4931,20 @@
         <v>57</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="46" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H60" s="20" t="s">
         <v>0</v>
@@ -5006,94 +4991,94 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.8">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.8">
+      <c r="A3" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8">
+      <c r="A4" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.8">
+      <c r="A6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.8">
+      <c r="A7" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="B7" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8">
+      <c r="A8" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B8" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+    <row r="9" spans="1:2" ht="13.8">
+      <c r="A9" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B9" s="35" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+    <row r="10" spans="1:2" ht="13.8">
+      <c r="A10" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B10" s="35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+    <row r="11" spans="1:2" ht="13.8">
+      <c r="A11" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B11" s="35" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5110,16 +5095,16 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -5204,7 +5189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5227,7 +5212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="59">
         <v>3</v>
       </c>
@@ -5250,7 +5235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="59"/>
       <c r="B7" s="5">
         <v>3</v>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32FF8C-E46C-414B-97AD-8F27CBAFEBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2973EC-0E38-4206-88A0-961A797DDB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2634,10 +2634,10 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41:G60"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2967,7 +2967,7 @@
         <v>4800</v>
       </c>
       <c r="M9" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="17" t="s">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="46" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E12" s="44" t="s">
         <v>184</v>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2973EC-0E38-4206-88A0-961A797DDB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315FB74-4360-445C-9CA5-8FF7A4C9A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Edge" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Input Data_Module'!$A$3:$O$60</definedName>
     <definedName name="H">Edge!$P$11:$P$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="185">
   <si>
     <t>Purple</t>
   </si>
@@ -734,16 +735,10 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>Pink</t>
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Blue</t>
   </si>
   <si>
     <t>Brown</t>
@@ -2634,10 +2629,10 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2705,13 +2700,13 @@
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>31</v>
@@ -2749,16 +2744,16 @@
         <v>84</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>0</v>
@@ -2788,19 +2783,19 @@
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="25">
         <v>3983.44</v>
@@ -2827,16 +2822,16 @@
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>145</v>
@@ -2866,16 +2861,16 @@
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>146</v>
@@ -2905,16 +2900,16 @@
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>165</v>
@@ -2944,16 +2939,16 @@
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>0</v>
@@ -2983,19 +2978,19 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="25">
         <v>7368</v>
@@ -3022,19 +3017,19 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I11" s="25">
         <v>1499.07</v>
@@ -3061,16 +3056,16 @@
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>0</v>
@@ -3100,16 +3095,16 @@
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>145</v>
@@ -3139,16 +3134,16 @@
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>0</v>
@@ -3178,16 +3173,16 @@
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>165</v>
@@ -3217,19 +3212,19 @@
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I16" s="26">
         <v>391.68</v>
@@ -3256,19 +3251,19 @@
       </c>
       <c r="C17" s="58"/>
       <c r="D17" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I17" s="26">
         <v>97.92</v>
@@ -3295,16 +3290,16 @@
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>0</v>
@@ -3334,16 +3329,16 @@
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>146</v>
@@ -3373,16 +3368,16 @@
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>0</v>
@@ -3412,19 +3407,19 @@
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" s="31">
         <v>881.61</v>
@@ -3451,16 +3446,16 @@
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>0</v>
@@ -3492,16 +3487,16 @@
         <v>140</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>0</v>
@@ -3531,16 +3526,16 @@
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>0</v>
@@ -3570,16 +3565,16 @@
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>146</v>
@@ -3609,16 +3604,16 @@
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>0</v>
@@ -3648,16 +3643,16 @@
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>0</v>
@@ -3687,19 +3682,19 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="27">
         <v>456.72</v>
@@ -3726,16 +3721,16 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>0</v>
@@ -3765,16 +3760,16 @@
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>0</v>
@@ -3804,19 +3799,19 @@
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>63</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="27">
         <v>859.76</v>
@@ -3843,16 +3838,16 @@
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>0</v>
@@ -3882,16 +3877,16 @@
       </c>
       <c r="C33" s="48"/>
       <c r="D33" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>166</v>
@@ -3921,16 +3916,16 @@
       </c>
       <c r="C34" s="48"/>
       <c r="D34" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>66</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>0</v>
@@ -3960,19 +3955,19 @@
       </c>
       <c r="C35" s="48"/>
       <c r="D35" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I35" s="28">
         <v>1083.68</v>
@@ -3999,16 +3994,16 @@
       </c>
       <c r="C36" s="48"/>
       <c r="D36" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>166</v>
@@ -4038,19 +4033,19 @@
       </c>
       <c r="C37" s="48"/>
       <c r="D37" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="27">
         <v>931.35</v>
@@ -4077,16 +4072,16 @@
       </c>
       <c r="C38" s="48"/>
       <c r="D38" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>70</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>0</v>
@@ -4116,16 +4111,16 @@
       </c>
       <c r="C39" s="48"/>
       <c r="D39" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>165</v>
@@ -4155,16 +4150,16 @@
       </c>
       <c r="C40" s="48"/>
       <c r="D40" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>0</v>
@@ -4194,19 +4189,19 @@
       </c>
       <c r="C41" s="48"/>
       <c r="D41" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I41" s="27">
         <v>135.88</v>
@@ -4233,19 +4228,19 @@
       </c>
       <c r="C42" s="48"/>
       <c r="D42" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I42" s="27">
         <v>64.8</v>
@@ -4272,19 +4267,19 @@
       </c>
       <c r="C43" s="48"/>
       <c r="D43" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="27">
         <v>609.76</v>
@@ -4311,16 +4306,16 @@
       </c>
       <c r="C44" s="48"/>
       <c r="D44" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>0</v>
@@ -4350,16 +4345,16 @@
       </c>
       <c r="C45" s="48"/>
       <c r="D45" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>145</v>
@@ -4389,16 +4384,16 @@
       </c>
       <c r="C46" s="48"/>
       <c r="D46" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>0</v>
@@ -4428,19 +4423,19 @@
       </c>
       <c r="C47" s="48"/>
       <c r="D47" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I47" s="27">
         <v>318.56</v>
@@ -4467,16 +4462,16 @@
       </c>
       <c r="C48" s="48"/>
       <c r="D48" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>0</v>
@@ -4506,16 +4501,16 @@
       </c>
       <c r="C49" s="48"/>
       <c r="D49" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>0</v>
@@ -4545,16 +4540,16 @@
       </c>
       <c r="C50" s="48"/>
       <c r="D50" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>0</v>
@@ -4584,19 +4579,19 @@
       </c>
       <c r="C51" s="48"/>
       <c r="D51" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I51" s="27">
         <v>148.52000000000001</v>
@@ -4623,19 +4618,19 @@
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>98</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I52" s="27">
         <v>511.44</v>
@@ -4662,16 +4657,16 @@
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>99</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H53" s="20" t="s">
         <v>0</v>
@@ -4701,19 +4696,19 @@
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>133</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I54" s="27">
         <v>60.96</v>
@@ -4740,16 +4735,16 @@
       </c>
       <c r="C55" s="48"/>
       <c r="D55" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>134</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>0</v>
@@ -4779,16 +4774,16 @@
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>135</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>0</v>
@@ -4818,19 +4813,19 @@
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>136</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I57" s="27">
         <v>202.4</v>
@@ -4857,16 +4852,16 @@
       </c>
       <c r="C58" s="48"/>
       <c r="D58" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>137</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>0</v>
@@ -4896,16 +4891,16 @@
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>138</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>145</v>
@@ -4935,16 +4930,16 @@
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H60" s="20" t="s">
         <v>0</v>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315FB74-4360-445C-9CA5-8FF7A4C9A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C8F8F-7929-40C3-A2B1-6D3D9EBB5DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2629,10 +2629,10 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2834,7 +2834,7 @@
         <v>172</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="I6" s="25">
         <v>5615.03</v>
@@ -3107,7 +3107,7 @@
         <v>177</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I13" s="26">
         <v>479.52</v>
@@ -4357,7 +4357,7 @@
         <v>184</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I45" s="27">
         <v>59.84</v>
@@ -4903,7 +4903,7 @@
         <v>184</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I59" s="28">
         <v>1143.71</v>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4315FB74-4360-445C-9CA5-8FF7A4C9A91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B3D25-0E4A-48C7-95B5-0AE7D123BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Edge" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Input Data_Module'!$A$3:$O$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Input Data_Module'!$F$1:$F$60</definedName>
     <definedName name="H">Edge!$P$11:$P$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
   <si>
     <t>Purple</t>
   </si>
@@ -744,21 +744,6 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>Group color</t>
-  </si>
-  <si>
-    <t>Group area</t>
-  </si>
-  <si>
-    <t>4800</t>
-  </si>
-  <si>
-    <t>10500</t>
-  </si>
-  <si>
-    <t>8900</t>
-  </si>
-  <si>
     <t>Research Facility</t>
   </si>
   <si>
@@ -768,9 +753,6 @@
     <t>Business Facilities</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
     <t>Common Use Facility 1</t>
   </si>
   <si>
@@ -781,15 +763,6 @@
   </si>
   <si>
     <t>Public Facilities 1</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>20500</t>
-  </si>
-  <si>
-    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -903,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -928,21 +901,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -950,21 +908,6 @@
       </right>
       <top style="thin">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1287,7 +1230,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1297,10 +1240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1309,16 +1252,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1327,10 +1270,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1339,55 +1291,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1396,73 +1333,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2626,2346 +2557,1994 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="41" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="17" width="16.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.33203125" style="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.6" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:15" ht="27.6" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-    </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="52"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="8" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="L3" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.25" customHeight="1" thickTop="1">
+    <row r="4" spans="1:15" ht="20.25" customHeight="1" thickTop="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="G4" s="22">
         <v>805.12</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K4" s="15">
         <v>1</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="L4" s="35"/>
+      <c r="M4" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>182</v>
+      <c r="C5" s="54"/>
+      <c r="D5" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="25">
+      <c r="G5" s="23">
         <v>3983.44</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K5" s="19">
         <v>1</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="L5" s="36"/>
+      <c r="M5" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>182</v>
+      <c r="C6" s="54"/>
+      <c r="D6" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="25">
+        <v>146</v>
+      </c>
+      <c r="G6" s="23">
         <v>5615.03</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K6" s="19">
         <v>1</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="17" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.85" customHeight="1">
+    <row r="7" spans="1:15" ht="20.85" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>182</v>
+      <c r="C7" s="54"/>
+      <c r="D7" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="25">
+        <v>168</v>
+      </c>
+      <c r="G7" s="23">
         <v>1885.68</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M7" s="21">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K7" s="19">
         <v>1</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="L7" s="36"/>
+      <c r="M7" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>182</v>
+      <c r="C8" s="54"/>
+      <c r="D8" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="25">
+      <c r="G8" s="23">
         <v>2495.8000000000002</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K8" s="19">
         <v>1</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="17" t="s">
+      <c r="L8" s="36"/>
+      <c r="M8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>182</v>
+      <c r="C9" s="54"/>
+      <c r="D9" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="G9" s="24">
         <v>475.39</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K9" s="19">
         <v>1</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="17" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>182</v>
+      <c r="C10" s="54"/>
+      <c r="D10" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="25">
+      <c r="G10" s="23">
         <v>7368</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K10" s="19">
         <v>2</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="17" t="s">
+      <c r="L10" s="36"/>
+      <c r="M10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>182</v>
+      <c r="C11" s="54"/>
+      <c r="D11" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="25">
+      <c r="G11" s="23">
         <v>1499.07</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K11" s="19">
         <v>2</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="17" t="s">
+      <c r="L11" s="36"/>
+      <c r="M11" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>182</v>
+      <c r="C12" s="54"/>
+      <c r="D12" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="26">
+      <c r="G12" s="24">
         <v>322.32</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K12" s="19">
         <v>2</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="17" t="s">
+      <c r="L12" s="36"/>
+      <c r="M12" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>182</v>
+      <c r="C13" s="54"/>
+      <c r="D13" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="26">
+        <v>167</v>
+      </c>
+      <c r="G13" s="24">
         <v>479.52</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M13" s="21">
-        <v>3</v>
-      </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>182</v>
+      <c r="C14" s="54"/>
+      <c r="D14" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="26">
+      <c r="G14" s="24">
         <v>195.84</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M14" s="21">
-        <v>3</v>
-      </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K14" s="19">
+        <v>3</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>182</v>
+      <c r="C15" s="54"/>
+      <c r="D15" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="26">
+      <c r="G15" s="24">
         <v>139.12</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M15" s="21">
-        <v>3</v>
-      </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>182</v>
+      <c r="C16" s="54"/>
+      <c r="D16" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>4</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="26">
+      <c r="G16" s="24">
         <v>391.68</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M16" s="21">
-        <v>3</v>
-      </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3</v>
+      </c>
+      <c r="L16" s="36"/>
+      <c r="M16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>182</v>
+      <c r="C17" s="54"/>
+      <c r="D17" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="26">
+      <c r="G17" s="24">
         <v>97.92</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M17" s="21">
-        <v>3</v>
-      </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K17" s="19">
+        <v>3</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="M17" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>182</v>
+      <c r="C18" s="54"/>
+      <c r="D18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="26">
+      <c r="G18" s="24">
         <v>391.68</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M18" s="21">
-        <v>3</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K18" s="19">
+        <v>3</v>
+      </c>
+      <c r="L18" s="36"/>
+      <c r="M18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>182</v>
+      <c r="C19" s="54"/>
+      <c r="D19" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="26">
+      <c r="G19" s="24">
         <v>781.21</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M19" s="21">
-        <v>3</v>
-      </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K19" s="19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>182</v>
+      <c r="C20" s="54"/>
+      <c r="D20" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="26">
+      <c r="G20" s="24">
         <v>541.44000000000005</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M20" s="21">
-        <v>3</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K20" s="19">
+        <v>3</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>182</v>
+      <c r="C21" s="54"/>
+      <c r="D21" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="31">
+      <c r="G21" s="29">
         <v>881.61</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M21" s="21">
-        <v>3</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K21" s="19">
+        <v>3</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>182</v>
+      <c r="C22" s="54"/>
+      <c r="D22" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="33">
+      <c r="G22" s="31">
         <v>100.64</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M22" s="21">
-        <v>3</v>
-      </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K22" s="19">
+        <v>3</v>
+      </c>
+      <c r="L22" s="36"/>
+      <c r="M22" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>182</v>
+      <c r="D23" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="32">
+      <c r="G23" s="30">
         <v>99</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M23" s="21">
-        <v>3</v>
-      </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K23" s="19">
+        <v>3</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>182</v>
+      <c r="C24" s="44"/>
+      <c r="D24" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="27">
+      <c r="G24" s="25">
         <v>99</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M24" s="21">
-        <v>3</v>
-      </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K24" s="19">
+        <v>3</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>182</v>
+      <c r="C25" s="44"/>
+      <c r="D25" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="27">
+      <c r="G25" s="25">
         <v>66</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M25" s="21">
-        <v>3</v>
-      </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K25" s="19">
+        <v>3</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>182</v>
+      <c r="C26" s="44"/>
+      <c r="D26" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="27">
+      <c r="G26" s="25">
         <v>66</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M26" s="21">
-        <v>3</v>
-      </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K26" s="19">
+        <v>3</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>182</v>
+      <c r="C27" s="44"/>
+      <c r="D27" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="27">
+      <c r="G27" s="25">
         <v>415.87</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M27" s="21">
-        <v>3</v>
-      </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K27" s="19">
+        <v>3</v>
+      </c>
+      <c r="L27" s="36"/>
+      <c r="M27" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>182</v>
+      <c r="C28" s="44"/>
+      <c r="D28" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="27">
+      <c r="G28" s="25">
         <v>456.72</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M28" s="21">
-        <v>3</v>
-      </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>182</v>
+      <c r="C29" s="44"/>
+      <c r="D29" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="27">
+      <c r="G29" s="25">
         <v>265.76</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M29" s="21">
-        <v>3</v>
-      </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K29" s="19">
+        <v>3</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>182</v>
+      <c r="C30" s="44"/>
+      <c r="D30" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="27">
+      <c r="G30" s="25">
         <v>111.3</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M30" s="21">
-        <v>3</v>
-      </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K30" s="19">
+        <v>3</v>
+      </c>
+      <c r="L30" s="36"/>
+      <c r="M30" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>182</v>
+      <c r="C31" s="44"/>
+      <c r="D31" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I31" s="27">
+      <c r="G31" s="25">
         <v>859.76</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M31" s="21">
-        <v>3</v>
-      </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K31" s="19">
+        <v>3</v>
+      </c>
+      <c r="L31" s="36"/>
+      <c r="M31" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>182</v>
+      <c r="C32" s="44"/>
+      <c r="D32" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H32" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="27">
+      <c r="G32" s="25">
         <v>202.92</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M32" s="21">
-        <v>3</v>
-      </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="19">
+        <v>3</v>
+      </c>
+      <c r="L32" s="36"/>
+      <c r="M32" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>182</v>
+      <c r="C33" s="44"/>
+      <c r="D33" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="27">
+      <c r="G33" s="25">
         <v>132</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M33" s="21">
-        <v>3</v>
-      </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="19">
+        <v>3</v>
+      </c>
+      <c r="L33" s="36"/>
+      <c r="M33" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>182</v>
+      <c r="C34" s="44"/>
+      <c r="D34" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="27">
+      <c r="G34" s="25">
         <v>118.8</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M34" s="21">
-        <v>3</v>
-      </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K34" s="19">
+        <v>3</v>
+      </c>
+      <c r="L34" s="36"/>
+      <c r="M34" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>182</v>
+      <c r="C35" s="44"/>
+      <c r="D35" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I35" s="28">
+      <c r="G35" s="26">
         <v>1083.68</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M35" s="21">
-        <v>3</v>
-      </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K35" s="19">
+        <v>3</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>182</v>
+      <c r="C36" s="44"/>
+      <c r="D36" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="27">
+      <c r="G36" s="25">
         <v>334.88</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M36" s="21">
-        <v>3</v>
-      </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K36" s="19">
+        <v>3</v>
+      </c>
+      <c r="L36" s="36"/>
+      <c r="M36" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>182</v>
+      <c r="C37" s="44"/>
+      <c r="D37" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I37" s="27">
+      <c r="G37" s="25">
         <v>931.35</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M37" s="21">
-        <v>3</v>
-      </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K37" s="19">
+        <v>3</v>
+      </c>
+      <c r="L37" s="36"/>
+      <c r="M37" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>182</v>
+      <c r="C38" s="44"/>
+      <c r="D38" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="27">
+      <c r="G38" s="25">
         <v>329.88</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M38" s="21">
-        <v>3</v>
-      </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K38" s="19">
+        <v>3</v>
+      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>182</v>
+      <c r="C39" s="44"/>
+      <c r="D39" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I39" s="27">
+      <c r="G39" s="25">
         <v>282.39999999999998</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M39" s="21">
-        <v>3</v>
-      </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K39" s="19">
+        <v>3</v>
+      </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>182</v>
+      <c r="C40" s="44"/>
+      <c r="D40" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="27">
+      <c r="G40" s="25">
         <v>64.8</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M40" s="21">
-        <v>3</v>
-      </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K40" s="19">
+        <v>3</v>
+      </c>
+      <c r="L40" s="36"/>
+      <c r="M40" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>182</v>
+      <c r="C41" s="44"/>
+      <c r="D41" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H41" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I41" s="27">
+      <c r="G41" s="25">
         <v>135.88</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M41" s="21">
-        <v>3</v>
-      </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K41" s="19">
+        <v>3</v>
+      </c>
+      <c r="L41" s="36"/>
+      <c r="M41" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>182</v>
+      <c r="C42" s="44"/>
+      <c r="D42" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I42" s="27">
+      <c r="G42" s="25">
         <v>64.8</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M42" s="21">
-        <v>3</v>
-      </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K42" s="19">
+        <v>3</v>
+      </c>
+      <c r="L42" s="36"/>
+      <c r="M42" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>182</v>
+      <c r="C43" s="44"/>
+      <c r="D43" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="27">
+      <c r="G43" s="25">
         <v>609.76</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M43" s="21">
-        <v>3</v>
-      </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K43" s="19">
+        <v>3</v>
+      </c>
+      <c r="L43" s="36"/>
+      <c r="M43" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>182</v>
+      <c r="C44" s="44"/>
+      <c r="D44" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H44" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="27">
+      <c r="G44" s="25">
         <v>602.96</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M44" s="21">
-        <v>3</v>
-      </c>
-      <c r="N44" s="38"/>
-      <c r="O44" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K44" s="19">
+        <v>3</v>
+      </c>
+      <c r="L44" s="36"/>
+      <c r="M44" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>182</v>
+      <c r="C45" s="44"/>
+      <c r="D45" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="27">
+        <v>165</v>
+      </c>
+      <c r="G45" s="25">
         <v>59.84</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M45" s="21">
-        <v>3</v>
-      </c>
-      <c r="N45" s="38"/>
-      <c r="O45" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K45" s="19">
+        <v>3</v>
+      </c>
+      <c r="L45" s="36"/>
+      <c r="M45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>182</v>
+      <c r="C46" s="44"/>
+      <c r="D46" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H46" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="27">
+      <c r="G46" s="25">
         <v>90.8</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M46" s="21">
-        <v>3</v>
-      </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K46" s="19">
+        <v>3</v>
+      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>182</v>
+      <c r="C47" s="44"/>
+      <c r="D47" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H47" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="27">
+      <c r="G47" s="25">
         <v>318.56</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M47" s="21">
-        <v>3</v>
-      </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K47" s="19">
+        <v>3</v>
+      </c>
+      <c r="L47" s="36"/>
+      <c r="M47" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>182</v>
+      <c r="C48" s="44"/>
+      <c r="D48" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="27">
+      <c r="G48" s="25">
         <v>63</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M48" s="21">
-        <v>3</v>
-      </c>
-      <c r="N48" s="38"/>
-      <c r="O48" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K48" s="19">
+        <v>3</v>
+      </c>
+      <c r="L48" s="36"/>
+      <c r="M48" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>182</v>
+      <c r="C49" s="44"/>
+      <c r="D49" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H49" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I49" s="27">
+      <c r="G49" s="25">
         <v>464.56</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M49" s="21">
-        <v>3</v>
-      </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K49" s="19">
+        <v>3</v>
+      </c>
+      <c r="L49" s="36"/>
+      <c r="M49" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>182</v>
+      <c r="C50" s="44"/>
+      <c r="D50" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H50" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I50" s="27">
+      <c r="G50" s="25">
         <v>126.36</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M50" s="21">
-        <v>3</v>
-      </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K50" s="19">
+        <v>3</v>
+      </c>
+      <c r="L50" s="36"/>
+      <c r="M50" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>182</v>
+      <c r="C51" s="44"/>
+      <c r="D51" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H51" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I51" s="27">
+      <c r="G51" s="25">
         <v>148.52000000000001</v>
       </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M51" s="21">
-        <v>3</v>
-      </c>
-      <c r="N51" s="38"/>
-      <c r="O51" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K51" s="19">
+        <v>3</v>
+      </c>
+      <c r="L51" s="36"/>
+      <c r="M51" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>182</v>
+      <c r="C52" s="44"/>
+      <c r="D52" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I52" s="27">
+      <c r="G52" s="25">
         <v>511.44</v>
       </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M52" s="21">
-        <v>3</v>
-      </c>
-      <c r="N52" s="38"/>
-      <c r="O52" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K52" s="19">
+        <v>3</v>
+      </c>
+      <c r="L52" s="36"/>
+      <c r="M52" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>182</v>
+      <c r="C53" s="44"/>
+      <c r="D53" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="27">
+      <c r="G53" s="25">
         <v>31.5</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M53" s="21">
-        <v>3</v>
-      </c>
-      <c r="N53" s="38"/>
-      <c r="O53" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K53" s="19">
+        <v>3</v>
+      </c>
+      <c r="L53" s="36"/>
+      <c r="M53" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>182</v>
+      <c r="C54" s="44"/>
+      <c r="D54" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H54" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I54" s="27">
+      <c r="G54" s="25">
         <v>60.96</v>
       </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M54" s="21">
-        <v>3</v>
-      </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K54" s="19">
+        <v>3</v>
+      </c>
+      <c r="L54" s="36"/>
+      <c r="M54" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>182</v>
+      <c r="C55" s="44"/>
+      <c r="D55" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H55" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="27">
+      <c r="G55" s="25">
         <v>826.56</v>
       </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M55" s="21">
-        <v>3</v>
-      </c>
-      <c r="N55" s="38"/>
-      <c r="O55" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K55" s="19">
+        <v>3</v>
+      </c>
+      <c r="L55" s="36"/>
+      <c r="M55" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>182</v>
+      <c r="C56" s="44"/>
+      <c r="D56" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="27">
+      <c r="G56" s="25">
         <v>127.8</v>
       </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M56" s="21">
-        <v>3</v>
-      </c>
-      <c r="N56" s="38"/>
-      <c r="O56" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K56" s="19">
+        <v>3</v>
+      </c>
+      <c r="L56" s="36"/>
+      <c r="M56" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>182</v>
+      <c r="C57" s="44"/>
+      <c r="D57" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I57" s="27">
+      <c r="G57" s="25">
         <v>202.4</v>
       </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M57" s="21">
-        <v>3</v>
-      </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K57" s="19">
+        <v>3</v>
+      </c>
+      <c r="L57" s="36"/>
+      <c r="M57" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>182</v>
+      <c r="C58" s="44"/>
+      <c r="D58" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H58" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I58" s="27">
+      <c r="G58" s="25">
         <v>257.31</v>
       </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M58" s="21">
-        <v>3</v>
-      </c>
-      <c r="N58" s="38"/>
-      <c r="O58" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K58" s="19">
+        <v>3</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>182</v>
+      <c r="C59" s="44"/>
+      <c r="D59" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="28">
+        <v>168</v>
+      </c>
+      <c r="G59" s="26">
         <v>1143.71</v>
       </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M59" s="21">
-        <v>3</v>
-      </c>
-      <c r="N59" s="38"/>
-      <c r="O59" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K59" s="19">
+        <v>3</v>
+      </c>
+      <c r="L59" s="36"/>
+      <c r="M59" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>182</v>
+      <c r="C60" s="45"/>
+      <c r="D60" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H60" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="27">
+      <c r="G60" s="25">
         <v>31.5</v>
       </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="16">
-        <v>4800</v>
-      </c>
-      <c r="M60" s="21">
-        <v>3</v>
-      </c>
-      <c r="N60" s="38"/>
-      <c r="O60" s="17" t="s">
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="15">
+        <v>4800</v>
+      </c>
+      <c r="K60" s="19">
+        <v>3</v>
+      </c>
+      <c r="L60" s="36"/>
+      <c r="M60" s="16" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="C23:C60"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:C22"/>
   </mergeCells>
@@ -4989,90 +4568,90 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5120,7 +4699,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="59">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -5143,7 +4722,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -5164,7 +4743,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5208,7 +4787,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="59">
+      <c r="A6" s="55">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -5231,7 +4810,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8">
-      <c r="A7" s="59"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B3D25-0E4A-48C7-95B5-0AE7D123BD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B46FF-34E0-4CCC-BD2C-03CE1E0CEEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Edge" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Input Data_Module'!$F$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Input Data_Module'!$F$1:$F$12</definedName>
     <definedName name="H">Edge!$P$11:$P$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>Purple</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2/3/5</t>
@@ -220,72 +217,6 @@
   </si>
   <si>
     <t>Venture room power room</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <r>
@@ -364,302 +295,10 @@
     <t>Dangerous goods storage</t>
   </si>
   <si>
-    <r>
-      <t>low temperature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>freezer storage room</t>
-    </r>
-  </si>
-  <si>
-    <t>female employee lounge</t>
-  </si>
-  <si>
-    <t>Sarangbang</t>
-  </si>
-  <si>
-    <t>community room</t>
-  </si>
-  <si>
-    <t>maintenance room</t>
-  </si>
-  <si>
-    <t>seminar room</t>
-  </si>
-  <si>
-    <t>reference Room</t>
-  </si>
-  <si>
-    <t>archive</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <r>
-      <t>management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duty room</t>
-    </r>
-  </si>
-  <si>
     <t>Research and Experiment Building</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>director's office</t>
-  </si>
-  <si>
-    <t>Chairman's Office</t>
-  </si>
-  <si>
-    <t>audit office</t>
-  </si>
-  <si>
-    <t>Senior Headquarters Office</t>
-  </si>
-  <si>
-    <t>General Manager's Office</t>
-  </si>
-  <si>
-    <t>DanㆍCenter</t>
-  </si>
-  <si>
-    <t>Visiting Scientist Room</t>
-  </si>
-  <si>
-    <t>reception room</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>Main Lobby</t>
-  </si>
-  <si>
-    <t>broadcasting and communication room</t>
-  </si>
-  <si>
-    <t>Administrative Office</t>
-  </si>
-  <si>
-    <r>
-      <t>air conditioning room</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>machine room</t>
-    </r>
-  </si>
-  <si>
-    <t>central control room</t>
-  </si>
-  <si>
-    <t>auditorium</t>
-  </si>
-  <si>
-    <t>international conference room</t>
-  </si>
-  <si>
-    <t>medium conference room</t>
-  </si>
-  <si>
-    <t>meeting room</t>
-  </si>
-  <si>
-    <t>training room</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <r>
-      <t>promotion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>․</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exhibition room</t>
-    </r>
-  </si>
-  <si>
-    <t>civil affairs office</t>
-  </si>
-  <si>
-    <t>situation room</t>
-  </si>
-  <si>
-    <t>computer room</t>
-  </si>
-  <si>
-    <t>duty room</t>
-  </si>
-  <si>
-    <t>union office</t>
-  </si>
-  <si>
-    <t>restroom</t>
-  </si>
-  <si>
-    <t>rest area</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>childcare facility</t>
-  </si>
-  <si>
-    <t>Facilities</t>
-  </si>
-  <si>
-    <t>fitness room</t>
-  </si>
-  <si>
-    <t>infirmary</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>administrative dong</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>grouping</t>
   </si>
   <si>
@@ -748,18 +387,6 @@
   </si>
   <si>
     <t>Laboratory Facility</t>
-  </si>
-  <si>
-    <t>Business Facilities</t>
-  </si>
-  <si>
-    <t>Common Use Facility 1</t>
-  </si>
-  <si>
-    <t>Common Use Facility 2</t>
-  </si>
-  <si>
-    <t>Public Facilities 2</t>
   </si>
   <si>
     <t>Public Facilities 1</t>
@@ -769,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -835,14 +462,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -876,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1117,74 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1230,7 +781,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1306,37 +857,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,34 +875,16 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,13 +893,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,19 +2069,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="31" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
@@ -2579,78 +2091,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.6" customHeight="1">
-      <c r="A1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.25" customHeight="1" thickTop="1">
@@ -2658,16 +2170,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>169</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>0</v>
@@ -2683,9 +2195,9 @@
       <c r="K4" s="15">
         <v>1</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2693,17 +2205,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="42" t="s">
-        <v>169</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="G5" s="23">
         <v>3983.44</v>
@@ -2716,9 +2228,9 @@
       <c r="K5" s="19">
         <v>1</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2726,17 +2238,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="42" t="s">
-        <v>170</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="G6" s="23">
         <v>5615.03</v>
@@ -2749,9 +2261,9 @@
       <c r="K6" s="19">
         <v>1</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.85" customHeight="1">
@@ -2759,17 +2271,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="42" t="s">
-        <v>170</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="G7" s="23">
         <v>1885.68</v>
@@ -2782,9 +2294,9 @@
       <c r="K7" s="19">
         <v>1</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2792,17 +2304,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="42" t="s">
-        <v>170</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="G8" s="23">
         <v>2495.8000000000002</v>
@@ -2815,9 +2327,9 @@
       <c r="K8" s="19">
         <v>1</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2825,11 +2337,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="42" t="s">
-        <v>170</v>
+        <v>47</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>5</v>
@@ -2848,9 +2360,9 @@
       <c r="K9" s="19">
         <v>1</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2858,17 +2370,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="42" t="s">
-        <v>175</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="G10" s="23">
         <v>7368</v>
@@ -2881,9 +2393,9 @@
       <c r="K10" s="19">
         <v>2</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2891,17 +2403,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="42" t="s">
-        <v>175</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="G11" s="23">
         <v>1499.07</v>
@@ -2914,9 +2426,9 @@
       <c r="K11" s="19">
         <v>2</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2924,11 +2436,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="42" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>7</v>
@@ -2947,1606 +2459,19 @@
       <c r="K12" s="19">
         <v>2</v>
       </c>
-      <c r="L12" s="36"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="24">
-        <v>479.52</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K13" s="19">
-        <v>3</v>
-      </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>195.84</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K14" s="19">
-        <v>3</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="24">
-        <v>139.12</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K15" s="19">
-        <v>3</v>
-      </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="24">
-        <v>391.68</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K16" s="19">
-        <v>3</v>
-      </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="24">
-        <v>97.92</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K17" s="19">
-        <v>3</v>
-      </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
-        <v>391.68</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K18" s="19">
-        <v>3</v>
-      </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="24">
-        <v>781.21</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K19" s="19">
-        <v>3</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <v>541.44000000000005</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K20" s="19">
-        <v>3</v>
-      </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="29">
-        <v>881.61</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K21" s="19">
-        <v>3</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
-        <v>100.64</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K22" s="19">
-        <v>3</v>
-      </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="30">
-        <v>99</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K23" s="19">
-        <v>3</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>99</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K24" s="19">
-        <v>3</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="25">
-        <v>66</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K25" s="19">
-        <v>3</v>
-      </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>66</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K26" s="19">
-        <v>3</v>
-      </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>415.87</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K27" s="19">
-        <v>3</v>
-      </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="25">
-        <v>456.72</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K28" s="19">
-        <v>3</v>
-      </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25">
-        <v>265.76</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K29" s="19">
-        <v>3</v>
-      </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25">
-        <v>111.3</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K30" s="19">
-        <v>3</v>
-      </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="25">
-        <v>859.76</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K31" s="19">
-        <v>3</v>
-      </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25">
-        <v>202.92</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K32" s="19">
-        <v>3</v>
-      </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="25">
-        <v>132</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K33" s="19">
-        <v>3</v>
-      </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>118.8</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K34" s="19">
-        <v>3</v>
-      </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="26">
-        <v>1083.68</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K35" s="19">
-        <v>3</v>
-      </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="25">
-        <v>334.88</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K36" s="19">
-        <v>3</v>
-      </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="25">
-        <v>931.35</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K37" s="19">
-        <v>3</v>
-      </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25">
-        <v>329.88</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K38" s="19">
-        <v>3</v>
-      </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="25">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K39" s="19">
-        <v>3</v>
-      </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="3">
-        <v>37</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>64.8</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K40" s="19">
-        <v>3</v>
-      </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="25">
-        <v>135.88</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K41" s="19">
-        <v>3</v>
-      </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="25">
-        <v>64.8</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K42" s="19">
-        <v>3</v>
-      </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="3">
-        <v>40</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" s="25">
-        <v>609.76</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K43" s="19">
-        <v>3</v>
-      </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="25">
-        <v>602.96</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K44" s="19">
-        <v>3</v>
-      </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="25">
-        <v>59.84</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K45" s="19">
-        <v>3</v>
-      </c>
-      <c r="L45" s="36"/>
-      <c r="M45" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="25">
-        <v>90.8</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K46" s="19">
-        <v>3</v>
-      </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="3">
-        <v>44</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="25">
-        <v>318.56</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K47" s="19">
-        <v>3</v>
-      </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="3">
-        <v>45</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="25">
-        <v>63</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K48" s="19">
-        <v>3</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="3">
-        <v>46</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="25">
-        <v>464.56</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K49" s="19">
-        <v>3</v>
-      </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="3">
-        <v>47</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="25">
-        <v>126.36</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K50" s="19">
-        <v>3</v>
-      </c>
-      <c r="L50" s="36"/>
-      <c r="M50" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="3">
-        <v>48</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="25">
-        <v>148.52000000000001</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K51" s="19">
-        <v>3</v>
-      </c>
-      <c r="L51" s="36"/>
-      <c r="M51" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="3">
-        <v>49</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" s="25">
-        <v>511.44</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K52" s="19">
-        <v>3</v>
-      </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="3">
-        <v>50</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K53" s="19">
-        <v>3</v>
-      </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="3">
-        <v>51</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" s="25">
-        <v>60.96</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K54" s="19">
-        <v>3</v>
-      </c>
-      <c r="L54" s="36"/>
-      <c r="M54" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="3">
-        <v>52</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="25">
-        <v>826.56</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K55" s="19">
-        <v>3</v>
-      </c>
-      <c r="L55" s="36"/>
-      <c r="M55" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="3">
-        <v>53</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" s="25">
-        <v>127.8</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K56" s="19">
-        <v>3</v>
-      </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="3">
-        <v>54</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="25">
-        <v>202.4</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K57" s="19">
-        <v>3</v>
-      </c>
-      <c r="L57" s="36"/>
-      <c r="M57" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="3">
-        <v>55</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="25">
-        <v>257.31</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K58" s="19">
-        <v>3</v>
-      </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="3">
-        <v>56</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="26">
-        <v>1143.71</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K59" s="19">
-        <v>3</v>
-      </c>
-      <c r="L59" s="36"/>
-      <c r="M59" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="3">
-        <v>57</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="15">
-        <v>4800</v>
-      </c>
-      <c r="K60" s="19">
-        <v>3</v>
-      </c>
-      <c r="L60" s="36"/>
-      <c r="M60" s="16" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="6">
-    <mergeCell ref="C23:C60"/>
+  <autoFilter ref="F1:F12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="5">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:C22"/>
+    <mergeCell ref="C4:C12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -4568,91 +2493,91 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
-      <c r="A1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>143</v>
+      <c r="A1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>144</v>
+      <c r="A2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
-      <c r="A3" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>155</v>
+      <c r="A3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
-      <c r="A4" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>156</v>
+      <c r="A4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
-      <c r="A5" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>157</v>
+      <c r="A5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8">
-      <c r="A6" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>158</v>
+      <c r="A6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8">
-      <c r="A7" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>159</v>
+      <c r="A7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8">
-      <c r="A8" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>160</v>
+      <c r="A8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8">
-      <c r="A9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>161</v>
+      <c r="A9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8">
-      <c r="A10" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>162</v>
+      <c r="A10" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8">
-      <c r="A11" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>163</v>
+      <c r="A11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4683,23 +2608,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A2" s="55">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -4709,20 +2634,20 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="55"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4730,20 +2655,20 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4751,16 +2676,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.8">
@@ -4774,20 +2699,20 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="55">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
       <c r="B6" s="5">
@@ -4797,20 +2722,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8">
-      <c r="A7" s="55"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4818,16 +2743,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_FINAL\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B46FF-34E0-4CCC-BD2C-03CE1E0CEEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C83272-6784-4AC3-898C-DAF5DBACA614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/DataSource/InputData.xlsx
+++ b/DataSource/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Wyzrs\Dev3\Project\DEV-3_Nevron_FINAL\DEV-3_Nevron_0601\DEV-3_Nevron_0601\DEV-3_Nevron_0429\DEV-3_Nevron\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C83272-6784-4AC3-898C-DAF5DBACA614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B132F-29C9-43AF-B1DD-7281F0C8CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2258,9 +2258,7 @@
       <c r="J6" s="15">
         <v>4800</v>
       </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
+      <c r="K6" s="19"/>
       <c r="L6" s="29"/>
       <c r="M6" s="16" t="s">
         <v>41</v>
@@ -2357,9 +2355,7 @@
       <c r="J9" s="15">
         <v>4800</v>
       </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="29"/>
       <c r="M9" s="16" t="s">
         <v>11</v>
@@ -2390,9 +2386,7 @@
       <c r="J10" s="15">
         <v>4800</v>
       </c>
-      <c r="K10" s="19">
-        <v>2</v>
-      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="29"/>
       <c r="M10" s="16" t="s">
         <v>11</v>
